--- a/src/test/resources/issue/fastexcel/issue237/fill-list.xlsx
+++ b/src/test/resources/issue/fastexcel/issue237/fill-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22500"/>
+    <workbookView windowHeight="27520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>字符串标题</t>
+    <t>StringTitle</t>
   </si>
   <si>
-    <t>数字标题</t>
+    <t>DateTitle</t>
   </si>
   <si>
     <t>{.string}</t>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
